--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,72 +40,69 @@
     <t>name</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>war</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>fuck</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>cut</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>empty</t>
+    <t>stop</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
     <t>19</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -133,64 +133,76 @@
     <t>free</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>thank</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>gt</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>relief</t>
   </si>
   <si>
     <t>please</t>
@@ -205,25 +217,31 @@
     <t>share</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>important</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>corona</t>
+    <t>data</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
 </sst>
 </file>
@@ -581,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,7 +610,7 @@
         <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -650,7 +668,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -668,19 +686,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -692,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -700,13 +718,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -750,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8116438356164384</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C5">
-        <v>237</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>237</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -768,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -792,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -800,13 +818,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8108108108108109</v>
+        <v>0.8013698630136986</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -818,19 +836,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -842,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -850,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7931034482758621</v>
+        <v>0.8</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -874,13 +892,13 @@
         <v>40</v>
       </c>
       <c r="K7">
-        <v>0.8372093023255814</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -892,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -900,13 +918,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7894736842105263</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -918,19 +936,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K8">
-        <v>0.8328981723237598</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>319</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>319</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -942,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>64</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -950,13 +968,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7666666666666667</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -968,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>311</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>311</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -992,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1000,13 +1018,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5932203389830508</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1018,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K10">
-        <v>0.8028169014084507</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L10">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="M10">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1042,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1050,13 +1068,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5641025641025641</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1068,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K11">
-        <v>0.79375</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1092,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1100,13 +1118,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.55</v>
+        <v>0.5368217054263565</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1118,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>239</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K12">
-        <v>0.7926829268292683</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L12">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1142,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1150,13 +1168,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5490196078431373</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1168,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K13">
-        <v>0.7924528301886793</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L13">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="M13">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1192,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1200,13 +1218,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5343915343915344</v>
+        <v>0.5291005291005291</v>
       </c>
       <c r="C14">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1218,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K14">
-        <v>0.78125</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1242,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1250,13 +1268,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5251937984496124</v>
+        <v>0.5234899328859061</v>
       </c>
       <c r="C15">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="D15">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1268,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>245</v>
+        <v>71</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1292,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1300,13 +1318,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5167785234899329</v>
+        <v>0.475</v>
       </c>
       <c r="C16">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1318,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>49</v>
@@ -1327,10 +1345,10 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1342,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1350,13 +1368,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5128205128205128</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1368,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K17">
-        <v>0.7692307692307693</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1392,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1400,13 +1418,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4666666666666667</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1418,19 +1436,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K18">
-        <v>0.7407407407407407</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1442,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1450,13 +1468,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4545454545454545</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1468,19 +1486,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K19">
-        <v>0.7291666666666666</v>
+        <v>0.765625</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1492,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1500,13 +1518,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4107142857142857</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1518,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K20">
-        <v>0.723404255319149</v>
+        <v>0.7625</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1542,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1550,13 +1568,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3818181818181818</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1568,19 +1586,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K21">
-        <v>0.696969696969697</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1592,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1600,13 +1618,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3111111111111111</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C22">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1618,19 +1636,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K22">
-        <v>0.6825396825396826</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1642,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1650,13 +1668,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2987012987012987</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1668,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K23">
-        <v>0.6529411764705882</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L23">
-        <v>222</v>
+        <v>47</v>
       </c>
       <c r="M23">
-        <v>222</v>
+        <v>47</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1692,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1700,13 +1718,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2619047619047619</v>
+        <v>0.1635388739946381</v>
       </c>
       <c r="C24">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D24">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1718,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>186</v>
+        <v>312</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K24">
-        <v>0.6170212765957447</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L24">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1742,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1750,13 +1768,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1581769436997319</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="C25">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1768,19 +1786,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L25">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1792,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1800,37 +1818,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.07333333333333333</v>
+        <v>0.01896551724137931</v>
       </c>
       <c r="C26">
         <v>22</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>278</v>
+        <v>1138</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K26">
-        <v>0.5899581589958159</v>
+        <v>0.6558823529411765</v>
       </c>
       <c r="L26">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="M26">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1842,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1850,37 +1868,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.02072538860103627</v>
+        <v>0.01611863313990974</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E27">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F27">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>1134</v>
+        <v>3052</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K27">
-        <v>0.5898305084745763</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L27">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1892,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>121</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1900,37 +1918,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01226993865030675</v>
+        <v>0.0107728337236534</v>
       </c>
       <c r="C28">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E28">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="F28">
-        <v>0.79</v>
+        <v>0.74</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>3059</v>
+        <v>2112</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K28">
-        <v>0.5846153846153846</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1942,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1950,37 +1968,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.009350163627863487</v>
+        <v>0.00630715862503942</v>
       </c>
       <c r="C29">
         <v>20</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E29">
-        <v>0.17</v>
+        <v>0.6</v>
       </c>
       <c r="F29">
-        <v>0.83</v>
+        <v>0.4</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>2119</v>
+        <v>3151</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K29">
-        <v>0.5428571428571428</v>
+        <v>0.6</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1992,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2000,13 +2018,13 @@
         <v>63</v>
       </c>
       <c r="K30">
-        <v>0.54</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2018,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>23</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2026,13 +2044,13 @@
         <v>64</v>
       </c>
       <c r="K31">
-        <v>0.5098039215686274</v>
+        <v>0.5898305084745763</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2044,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>25</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2052,13 +2070,13 @@
         <v>65</v>
       </c>
       <c r="K32">
-        <v>0.5056179775280899</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L32">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M32">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2070,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -2078,13 +2096,13 @@
         <v>66</v>
       </c>
       <c r="K33">
-        <v>0.4666666666666667</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2096,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2104,13 +2122,13 @@
         <v>67</v>
       </c>
       <c r="K34">
-        <v>0.3974358974358974</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L34">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2122,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2130,13 +2148,13 @@
         <v>68</v>
       </c>
       <c r="K35">
-        <v>0.3424657534246575</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2148,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2156,25 +2174,207 @@
         <v>69</v>
       </c>
       <c r="K36">
-        <v>0.01004079071226859</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="N36">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="O36">
-        <v>0.3</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>3155</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K37">
+        <v>0.3972602739726027</v>
+      </c>
+      <c r="L37">
+        <v>29</v>
+      </c>
+      <c r="M37">
+        <v>29</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K38">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="L38">
+        <v>28</v>
+      </c>
+      <c r="M38">
+        <v>28</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K39">
+        <v>0.3508771929824561</v>
+      </c>
+      <c r="L39">
+        <v>20</v>
+      </c>
+      <c r="M39">
+        <v>20</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K40">
+        <v>0.328125</v>
+      </c>
+      <c r="L40">
+        <v>21</v>
+      </c>
+      <c r="M40">
+        <v>21</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K41">
+        <v>0.3114754098360656</v>
+      </c>
+      <c r="L41">
+        <v>19</v>
+      </c>
+      <c r="M41">
+        <v>19</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K42">
+        <v>0.02113459399332592</v>
+      </c>
+      <c r="L42">
+        <v>19</v>
+      </c>
+      <c r="M42">
+        <v>21</v>
+      </c>
+      <c r="N42">
+        <v>0.9</v>
+      </c>
+      <c r="O42">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K43">
+        <v>0.009430996541967935</v>
+      </c>
+      <c r="L43">
+        <v>30</v>
+      </c>
+      <c r="M43">
+        <v>50</v>
+      </c>
+      <c r="N43">
+        <v>0.6</v>
+      </c>
+      <c r="O43">
+        <v>0.4</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>3151</v>
       </c>
     </row>
   </sheetData>
